--- a/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,23; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,18; 17,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>5,25; 11,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>7,71; 15,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>1,58; 6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,8; 22,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>8,65; 16,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,94; 17,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,48; 5,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,72; 18,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,86; 13,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,43; 15,41</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>7,47; 13,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>7,33; 13,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,55; 6,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>15,04; 23,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,23; 13,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>7,78; 13,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,68; 7,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>15,82; 21,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,45; 12,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,36; 12,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,54; 6,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>16,54; 21,53</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,26; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>6,49; 14,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,83; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>13,0; 20,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,55; 5,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>6,65; 13,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,77; 7,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,5; 16,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,88; 4,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>7,27; 11,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,1; 4,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>12,15; 16,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,55; 8,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,81; 10,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>7,86; 14,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>4,92; 12,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,59; 8,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,88; 16,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>10,18; 17,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,52; 8,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,19; 7,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,15; 12,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,69; 14,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,59; 9,01</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>6,33; 14,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>15,25; 27,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>5,31; 12,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,2; 11,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>8,7; 18,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>17,43; 29,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,27; 12,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,41; 11,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>8,6; 14,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>17,61; 26,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>6,0; 11,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,57; 10,64</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,38%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,36; 3,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>5,16; 11,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>6,64; 14,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>20,26; 29,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,39; 5,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,4; 17,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>8,15; 16,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>20,16; 28,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,2; 3,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,98; 13,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>8,5; 14,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>21,63; 27,84</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,57%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,22; 9,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,07; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,8; 7,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>12,75; 19,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,88; 10,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,98; 11,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,36; 9,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,7; 70,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,08; 8,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,16; 10,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,01; 7,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,44; 54,87</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,4; 10,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,02; 10,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,63; 10,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,52; 8,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>9,28; 14,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,76; 10,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,1; 11,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>8,12; 11,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,67; 11,7</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,98; 9,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,43; 10,42</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,56; 9,32</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,83; 7,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,5; 10,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,15; 7,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,07; 14,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,13; 9,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,37; 12,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,63; 9,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,4; 33,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,72; 7,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,75; 11,26</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,2; 8,53</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,84; 23,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,41</t>
+          <t>2,22; 7,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,33</t>
+          <t>9,2; 17,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,9</t>
+          <t>5,21; 12,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,78</t>
+          <t>7,96; 15,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,15</t>
+          <t>1,25; 5,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 22,49</t>
+          <t>12,93; 23,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,65; 16,77</t>
+          <t>8,99; 16,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,64</t>
+          <t>11,06; 17,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,89</t>
+          <t>2,28; 5,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,29</t>
+          <t>12,2; 18,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,28</t>
+          <t>7,77; 13,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,41</t>
+          <t>10,48; 15,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,12 +807,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,12 +827,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -846,12 +847,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>18,95%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,26</t>
+          <t>7,31; 13,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,18</t>
+          <t>7,45; 13,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,04</t>
+          <t>2,53; 6,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 23,43</t>
+          <t>15,72; 23,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 13,63</t>
+          <t>8,29; 13,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,21</t>
+          <t>8,05; 13,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,82</t>
+          <t>3,62; 7,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,92</t>
+          <t>15,66; 21,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,35</t>
+          <t>8,64; 12,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 12,23</t>
+          <t>8,33; 12,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,33</t>
+          <t>3,58; 6,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 21,53</t>
+          <t>16,49; 21,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +952,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +992,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,88</t>
+          <t>1,23; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,4</t>
+          <t>6,55; 14,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,31</t>
+          <t>0,78; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,65</t>
+          <t>12,4; 20,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,37</t>
+          <t>1,57; 5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,21</t>
+          <t>6,62; 13,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,35</t>
+          <t>2,68; 7,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,5; 16,34</t>
+          <t>10,64; 16,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,57</t>
+          <t>1,86; 4,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,95</t>
+          <t>7,33; 12,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,95</t>
+          <t>2,09; 5,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,95</t>
+          <t>12,43; 17,28</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1091,7 +1092,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1116,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,1</t>
+          <t>3,44; 8,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,13</t>
+          <t>4,6; 10,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,33</t>
+          <t>7,87; 14,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,1</t>
+          <t>4,99; 12,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,59</t>
+          <t>3,79; 8,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,97</t>
+          <t>10,19; 17,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,32</t>
+          <t>9,85; 17,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,42</t>
+          <t>3,33; 8,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,55</t>
+          <t>4,19; 7,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,65</t>
+          <t>8,07; 12,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,81</t>
+          <t>9,74; 14,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,01</t>
+          <t>4,56; 8,88</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1252,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,42</t>
+          <t>6,31; 14,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,25; 27,25</t>
+          <t>15,53; 27,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,87</t>
+          <t>5,15; 12,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,79</t>
+          <t>5,67; 12,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 18,1</t>
+          <t>8,33; 17,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,43; 29,0</t>
+          <t>17,47; 29,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,88</t>
+          <t>5,39; 12,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,69</t>
+          <t>4,61; 12,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 14,87</t>
+          <t>8,78; 14,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,61; 26,06</t>
+          <t>17,94; 26,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,21</t>
+          <t>6,07; 11,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,64</t>
+          <t>5,74; 11,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,31</t>
+          <t>0,37; 3,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,36</t>
+          <t>4,78; 11,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,49</t>
+          <t>6,82; 14,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,26; 29,02</t>
+          <t>20,4; 29,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,67</t>
+          <t>1,41; 5,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,87</t>
+          <t>9,34; 17,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 16,8</t>
+          <t>8,04; 16,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,16; 28,14</t>
+          <t>20,2; 28,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,58</t>
+          <t>1,24; 3,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,23</t>
+          <t>8,04; 13,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,05</t>
+          <t>8,58; 14,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,63; 27,84</t>
+          <t>21,61; 27,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1501,17 +1502,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1521,17 +1522,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1541,17 +1542,17 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,76%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,38</t>
+          <t>5,22; 9,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,54</t>
+          <t>6,02; 10,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,54</t>
+          <t>3,64; 7,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 19,32</t>
+          <t>12,87; 19,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,07</t>
+          <t>6,02; 10,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,7</t>
+          <t>7,37; 11,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,68</t>
+          <t>5,49; 9,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,7; 70,69</t>
+          <t>17,68; 69,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,99</t>
+          <t>6,12; 9,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,3</t>
+          <t>7,23; 10,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,97</t>
+          <t>5,16; 7,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 54,87</t>
+          <t>16,48; 56,27</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1637,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1651,12 +1652,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1671,17 +1672,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1691,7 +1692,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,27</t>
+          <t>6,41; 10,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,26</t>
+          <t>6,18; 10,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,93</t>
+          <t>6,62; 11,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,61</t>
+          <t>2,5; 8,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 14,16</t>
+          <t>9,42; 14,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,93</t>
+          <t>6,84; 10,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,36</t>
+          <t>7,14; 11,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,62</t>
+          <t>8,04; 11,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,7</t>
+          <t>8,59; 11,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,83</t>
+          <t>6,91; 9,8</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,42</t>
+          <t>7,55; 10,65</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,32</t>
+          <t>4,3; 9,33</t>
         </is>
       </c>
     </row>
@@ -1776,27 +1777,27 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1806,32 +1807,32 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,57</t>
+          <t>5,81; 7,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,63</t>
+          <t>8,53; 10,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,89</t>
+          <t>6,15; 8,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,39</t>
+          <t>10,22; 14,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,04</t>
+          <t>7,16; 9,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,37; 12,62</t>
+          <t>10,46; 12,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,57</t>
+          <t>7,77; 9,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,4; 33,17</t>
+          <t>13,52; 33,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,98</t>
+          <t>6,76; 8,02</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,75; 11,26</t>
+          <t>9,8; 11,25</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,53</t>
+          <t>7,25; 8,56</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,84; 23,38</t>
+          <t>13,02; 27,71</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con alguna limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11530</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37922</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23666</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34985</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8428</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49646</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35718</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40947</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19958</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>87568</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59384</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>75932</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6029; 20321</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27126; 52110</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15297; 35416</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24778; 48371</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3241; 15085</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37140; 66578</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25955; 48570</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32041; 51513</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12105; 29756</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71012; 108557</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45233; 77385</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63018; 94321</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49261</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50091</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19876</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98843</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54627</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54738</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28507</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>95835</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103888</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>104829</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48383</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>194678</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36037; 64986</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37661; 68467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12437; 29810</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>80874; 122346</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41779; 70022</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42170; 70448</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18758; 40247</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80312; 111581</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86139; 125922</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85791; 125782</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36097; 63649</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>169458; 223668</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31281</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6665</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10486</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32508</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15308</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45768</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63789</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21973</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97077</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3932; 15984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21217; 46093</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2492; 13190</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39083; 64043</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5254; 18664</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22585; 44997</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9024; 24305</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37148; 57887</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12187; 29622</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48735; 81541</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13710; 32911</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82597; 114787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19695</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26420</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39845</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25220</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21590</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51260</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51890</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26994</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41286</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77680</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>91735</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52214</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12227; 30058</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17216; 37854</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29120; 54431</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15491; 39739</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14087; 31587</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39634; 67294</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38157; 67571</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15834; 38890</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30431; 55276</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>61558; 97157</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73776; 111153</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35803; 69825</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20102</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>44184</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17846</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14303</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26790</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>49432</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18407</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22040</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>46893</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>93616</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>36253</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36343</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12825; 29399</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33026; 58100</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10873; 27309</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9793; 21334</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17290; 36837</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38354; 63958</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11780; 27619</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11512; 30472</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>36069; 60352</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>77548; 112497</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26080; 49211</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24257; 46450</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21181</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>26957</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>66533</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8183</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36569</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32213</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61876</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12109</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>57750</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>59170</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>128409</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>987; 8917</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13099; 31930</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17951; 37515</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>54994; 80003</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3918; 15488</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26142; 48805</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21970; 43935</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>51913; 72629</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6789; 20138</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>44563; 74907</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45995; 76374</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>113831; 146380</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>42920</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>53473</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35366</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>97267</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50279</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>64105</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>51394</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>323676</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>93199</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>117578</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>86760</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>420943</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>32098; 55913</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>39854; 68852</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23666; 48699</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>79375; 117509</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38423; 65636</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>50999; 80766</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>37847; 67969</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>149724; 587633</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>76644; 114253</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>97837; 141932</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>69220; 105772</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>241247; 823551</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>61212</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>61769</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>67720</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>53746</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>91045</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>71523</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>74725</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>69491</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>152257</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>133292</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>142446</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>123237</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>47536; 77324</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>47991; 80000</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>51548; 86075</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>23144; 78394</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>73540; 109870</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>56313; 90560</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>59003; 94039</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>57466; 83798</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>130645; 176551</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>110667; 156839</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>121128; 170853</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>70555; 153090</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>217659</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>326322</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>237941</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>442206</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>409780</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>308163</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>686628</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>489089</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>736101</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>546104</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1128833</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>189845; 247810</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>291937; 365686</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>207562; 272160</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>351263; 498687</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>241531; 307359</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>372104; 450408</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>274838; 343545</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>499800; 1225374</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>448730; 532442</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>683949; 785386</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>501359; 591663</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>928987; 1976213</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>